--- a/z-support-files/Spectral-finalize/0_lists4/lists-for-proofing.xlsx
+++ b/z-support-files/Spectral-finalize/0_lists4/lists-for-proofing.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27430"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="15560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="15560" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="persName" sheetId="3" r:id="rId1"/>
@@ -5757,7 +5757,158 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
@@ -6086,8 +6237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B380"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A314" workbookViewId="0">
-      <selection activeCell="A314" sqref="A1:A1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B324" sqref="B324"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8660,7 +8811,7 @@
       <c r="A322" t="s">
         <v>821</v>
       </c>
-      <c r="B322" t="s">
+      <c r="B322" s="1" t="s">
         <v>863</v>
       </c>
     </row>
@@ -8668,7 +8819,7 @@
       <c r="A323" t="s">
         <v>821</v>
       </c>
-      <c r="B323" t="s">
+      <c r="B323" s="1" t="s">
         <v>864</v>
       </c>
     </row>
@@ -8676,7 +8827,7 @@
       <c r="A324" t="s">
         <v>821</v>
       </c>
-      <c r="B324" t="s">
+      <c r="B324" s="1" t="s">
         <v>874</v>
       </c>
     </row>
@@ -9030,6 +9181,9 @@
   <sortState ref="A2:B380">
     <sortCondition ref="A2:A380"/>
   </sortState>
+  <conditionalFormatting sqref="A2:A346">
+    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -9045,7 +9199,7 @@
   <dimension ref="A2:B218"/>
   <sheetViews>
     <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B136" sqref="B136"/>
+      <selection activeCell="A15" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -10546,6 +10700,9 @@
     <sortCondition ref="B2:B218"/>
     <sortCondition ref="A2:A218"/>
   </sortState>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -10560,7 +10717,7 @@
   <dimension ref="A2:B190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="A33:B33"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -11636,6 +11793,12 @@
     <sortCondition ref="B2:B190"/>
     <sortCondition ref="A2:A190"/>
   </sortState>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -11650,7 +11813,7 @@
   <dimension ref="A2:C76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -12118,6 +12281,9 @@
     <sortCondition ref="B2:B76"/>
     <sortCondition ref="A2:A76"/>
   </sortState>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -12132,12 +12298,13 @@
   <dimension ref="A2:B108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
@@ -12746,6 +12913,9 @@
     <sortCondition ref="B2:B108"/>
     <sortCondition ref="A2:A108"/>
   </sortState>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -12759,8 +12929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B515"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B38" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -15748,6 +15918,9 @@
     <sortCondition ref="B1:B516"/>
     <sortCondition ref="A1:A516"/>
   </sortState>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/z-support-files/Spectral-finalize/0_lists4/lists-for-proofing.xlsx
+++ b/z-support-files/Spectral-finalize/0_lists4/lists-for-proofing.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27430"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="15560" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24780" windowHeight="15560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="persName" sheetId="3" r:id="rId1"/>
@@ -5719,7 +5719,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5729,6 +5729,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5742,72 +5748,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="18">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -5905,6 +5866,86 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6235,10 +6276,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B380"/>
+  <dimension ref="A2:C380"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B324" sqref="B324"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C321" sqref="C321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6623,7 +6664,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>746</v>
       </c>
@@ -6631,7 +6672,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>600</v>
       </c>
@@ -6639,7 +6680,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>602</v>
       </c>
@@ -6647,7 +6688,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>763</v>
       </c>
@@ -6655,7 +6696,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>618</v>
       </c>
@@ -6663,7 +6704,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>618</v>
       </c>
@@ -6671,7 +6712,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>618</v>
       </c>
@@ -6679,7 +6720,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>537</v>
       </c>
@@ -6687,7 +6728,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>537</v>
       </c>
@@ -6695,7 +6736,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>537</v>
       </c>
@@ -6703,7 +6744,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>627</v>
       </c>
@@ -6711,7 +6752,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
         <v>629</v>
       </c>
@@ -6719,7 +6760,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>629</v>
       </c>
@@ -6727,23 +6768,25 @@
         <v>630</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:3">
       <c r="A62" s="1" t="s">
         <v>632</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="63" spans="1:2">
+      <c r="C62" s="3"/>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63" s="1" t="s">
         <v>632</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="64" spans="1:2">
+      <c r="C63" s="3"/>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
         <v>635</v>
       </c>
@@ -7391,7 +7434,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:3">
       <c r="A145" t="s">
         <v>777</v>
       </c>
@@ -7399,7 +7442,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:3">
       <c r="A146" t="s">
         <v>777</v>
       </c>
@@ -7407,7 +7450,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:3">
       <c r="A147" t="s">
         <v>802</v>
       </c>
@@ -7415,7 +7458,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:3">
       <c r="A148" t="s">
         <v>804</v>
       </c>
@@ -7423,7 +7466,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:3">
       <c r="A149" t="s">
         <v>807</v>
       </c>
@@ -7431,7 +7474,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:3">
       <c r="A150" t="s">
         <v>809</v>
       </c>
@@ -7439,7 +7482,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:3">
       <c r="A151" t="s">
         <v>817</v>
       </c>
@@ -7447,15 +7490,16 @@
         <v>816</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:3">
       <c r="A152" s="1" t="s">
         <v>819</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="153" spans="1:2">
+      <c r="C152" s="3"/>
+    </row>
+    <row r="153" spans="1:3">
       <c r="A153" t="s">
         <v>823</v>
       </c>
@@ -7463,7 +7507,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:3">
       <c r="A154" t="s">
         <v>825</v>
       </c>
@@ -7471,7 +7515,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:3">
       <c r="A155" t="s">
         <v>827</v>
       </c>
@@ -7479,7 +7523,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:3">
       <c r="A156" t="s">
         <v>827</v>
       </c>
@@ -7487,7 +7531,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:3">
       <c r="A157" t="s">
         <v>831</v>
       </c>
@@ -7495,7 +7539,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:3">
       <c r="A158" t="s">
         <v>833</v>
       </c>
@@ -7503,7 +7547,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:3">
       <c r="A159" t="s">
         <v>833</v>
       </c>
@@ -7511,7 +7555,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:3">
       <c r="A160" t="s">
         <v>835</v>
       </c>
@@ -7519,7 +7563,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:3">
       <c r="A161" t="s">
         <v>835</v>
       </c>
@@ -7527,7 +7571,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" spans="1:3">
       <c r="A162" t="s">
         <v>835</v>
       </c>
@@ -7535,7 +7579,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" spans="1:3">
       <c r="A163" t="s">
         <v>846</v>
       </c>
@@ -7543,7 +7587,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:3">
       <c r="A164" t="s">
         <v>848</v>
       </c>
@@ -7551,7 +7595,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="165" spans="1:2">
+    <row r="165" spans="1:3">
       <c r="A165" t="s">
         <v>853</v>
       </c>
@@ -7559,7 +7603,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" spans="1:3">
       <c r="A166" t="s">
         <v>853</v>
       </c>
@@ -7567,7 +7611,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" spans="1:3">
       <c r="A167" t="s">
         <v>851</v>
       </c>
@@ -7575,7 +7619,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="168" spans="1:2">
+    <row r="168" spans="1:3">
       <c r="A168" t="s">
         <v>851</v>
       </c>
@@ -7583,15 +7627,16 @@
         <v>855</v>
       </c>
     </row>
-    <row r="169" spans="1:2">
+    <row r="169" spans="1:3">
       <c r="A169" s="1" t="s">
         <v>859</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>858</v>
       </c>
-    </row>
-    <row r="170" spans="1:2">
+      <c r="C169" s="3"/>
+    </row>
+    <row r="170" spans="1:3">
       <c r="A170" t="s">
         <v>866</v>
       </c>
@@ -7599,7 +7644,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="171" spans="1:2">
+    <row r="171" spans="1:3">
       <c r="A171" t="s">
         <v>868</v>
       </c>
@@ -7607,7 +7652,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="172" spans="1:2">
+    <row r="172" spans="1:3">
       <c r="A172" t="s">
         <v>879</v>
       </c>
@@ -7615,7 +7660,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
+    <row r="173" spans="1:3">
       <c r="A173" t="s">
         <v>881</v>
       </c>
@@ -7623,7 +7668,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
+    <row r="174" spans="1:3">
       <c r="A174" t="s">
         <v>881</v>
       </c>
@@ -7631,7 +7676,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="175" spans="1:2">
+    <row r="175" spans="1:3">
       <c r="A175" t="s">
         <v>876</v>
       </c>
@@ -7639,7 +7684,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="176" spans="1:2">
+    <row r="176" spans="1:3">
       <c r="A176" t="s">
         <v>876</v>
       </c>
@@ -8799,39 +8844,43 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="321" spans="1:2">
+    <row r="321" spans="1:3">
       <c r="A321" s="1" t="s">
         <v>821</v>
       </c>
       <c r="B321" s="1" t="s">
         <v>820</v>
       </c>
-    </row>
-    <row r="322" spans="1:2">
+      <c r="C321" s="3"/>
+    </row>
+    <row r="322" spans="1:3">
       <c r="A322" t="s">
         <v>821</v>
       </c>
       <c r="B322" s="1" t="s">
         <v>863</v>
       </c>
-    </row>
-    <row r="323" spans="1:2">
+      <c r="C322" s="3"/>
+    </row>
+    <row r="323" spans="1:3">
       <c r="A323" t="s">
         <v>821</v>
       </c>
       <c r="B323" s="1" t="s">
         <v>864</v>
       </c>
-    </row>
-    <row r="324" spans="1:2">
+      <c r="C323" s="3"/>
+    </row>
+    <row r="324" spans="1:3">
       <c r="A324" t="s">
         <v>821</v>
       </c>
       <c r="B324" s="1" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="325" spans="1:2">
+      <c r="C324" s="3"/>
+    </row>
+    <row r="325" spans="1:3">
       <c r="A325" t="s">
         <v>583</v>
       </c>
@@ -8839,7 +8888,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="326" spans="1:2">
+    <row r="326" spans="1:3">
       <c r="A326" t="s">
         <v>583</v>
       </c>
@@ -8847,7 +8896,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="327" spans="1:2">
+    <row r="327" spans="1:3">
       <c r="A327" t="s">
         <v>701</v>
       </c>
@@ -8855,7 +8904,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="328" spans="1:2">
+    <row r="328" spans="1:3">
       <c r="A328" t="s">
         <v>701</v>
       </c>
@@ -8863,7 +8912,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="329" spans="1:2">
+    <row r="329" spans="1:3">
       <c r="A329" t="s">
         <v>784</v>
       </c>
@@ -8871,7 +8920,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="330" spans="1:2">
+    <row r="330" spans="1:3">
       <c r="A330" t="s">
         <v>792</v>
       </c>
@@ -8879,7 +8928,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="331" spans="1:2">
+    <row r="331" spans="1:3">
       <c r="A331" t="s">
         <v>708</v>
       </c>
@@ -8887,7 +8936,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="332" spans="1:2">
+    <row r="332" spans="1:3">
       <c r="A332" t="s">
         <v>901</v>
       </c>
@@ -8895,7 +8944,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="333" spans="1:2">
+    <row r="333" spans="1:3">
       <c r="A333" t="s">
         <v>903</v>
       </c>
@@ -8903,7 +8952,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="334" spans="1:2">
+    <row r="334" spans="1:3">
       <c r="A334" t="s">
         <v>903</v>
       </c>
@@ -8911,7 +8960,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="335" spans="1:2">
+    <row r="335" spans="1:3">
       <c r="A335" t="s">
         <v>1050</v>
       </c>
@@ -8919,7 +8968,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="336" spans="1:2">
+    <row r="336" spans="1:3">
       <c r="A336" t="s">
         <v>1072</v>
       </c>
@@ -9182,7 +9231,7 @@
     <sortCondition ref="A2:A380"/>
   </sortState>
   <conditionalFormatting sqref="A2:A346">
-    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -9196,1514 +9245,1527 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B218"/>
+  <dimension ref="A2:C218"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A15" sqref="A1:A1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="50.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" t="s">
         <v>60</v>
-      </c>
-      <c r="B2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
         <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
         <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
         <v>33</v>
-      </c>
-      <c r="B5" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
         <v>35</v>
-      </c>
-      <c r="B6" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s">
         <v>38</v>
-      </c>
-      <c r="B7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
         <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" t="s">
         <v>42</v>
-      </c>
-      <c r="B9" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" t="s">
         <v>50</v>
-      </c>
-      <c r="B10" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" t="s">
         <v>52</v>
-      </c>
-      <c r="B11" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" t="s">
         <v>54</v>
-      </c>
-      <c r="B12" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" t="s">
         <v>56</v>
-      </c>
-      <c r="B13" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" t="s">
         <v>58</v>
-      </c>
-      <c r="B14" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" t="s">
         <v>62</v>
-      </c>
-      <c r="B15" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" t="s">
         <v>66</v>
       </c>
-      <c r="B16" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
         <v>68</v>
       </c>
-      <c r="B17" t="s">
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
+      <c r="B18" t="s">
         <v>155</v>
       </c>
-      <c r="B18" t="s">
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
+      <c r="B19" t="s">
         <v>164</v>
       </c>
-      <c r="B19" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" t="s">
         <v>73</v>
       </c>
-      <c r="B20" t="s">
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
+      <c r="B21" t="s">
         <v>70</v>
       </c>
-      <c r="B21" t="s">
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
+      <c r="B22" t="s">
         <v>72</v>
       </c>
-      <c r="B22" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" t="s">
         <v>90</v>
       </c>
-      <c r="B23" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
         <v>0</v>
       </c>
-      <c r="B24" t="s">
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
+      <c r="B25" t="s">
         <v>4</v>
       </c>
-      <c r="B25" t="s">
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
+      <c r="B26" t="s">
         <v>3</v>
       </c>
-      <c r="B26" t="s">
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
+      <c r="B27" t="s">
         <v>99</v>
       </c>
-      <c r="B27" t="s">
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
+      <c r="B28" t="s">
         <v>117</v>
       </c>
-      <c r="B28" t="s">
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
+        <v>140</v>
+      </c>
+      <c r="B30" t="s">
         <v>139</v>
       </c>
-      <c r="B30" t="s">
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
+      <c r="B31" t="s">
         <v>141</v>
       </c>
-      <c r="B31" t="s">
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
+      <c r="B32" t="s">
         <v>142</v>
       </c>
-      <c r="B32" t="s">
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="3"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="C34" s="3"/>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="C35" s="3"/>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" t="s">
         <v>5</v>
       </c>
-      <c r="B36" t="s">
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
+      <c r="B37" t="s">
         <v>100</v>
       </c>
-      <c r="B37" t="s">
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
+      <c r="B38" t="s">
         <v>118</v>
       </c>
-      <c r="B38" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39" t="s">
         <v>29</v>
       </c>
-      <c r="B39" t="s">
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
+      <c r="B40" t="s">
         <v>101</v>
       </c>
-      <c r="B40" t="s">
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
+      <c r="B41" t="s">
         <v>112</v>
       </c>
-      <c r="B41" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
+        <v>76</v>
+      </c>
+      <c r="B42" t="s">
         <v>75</v>
       </c>
-      <c r="B42" t="s">
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
+      <c r="B43" t="s">
         <v>218</v>
       </c>
-      <c r="B43" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
+        <v>196</v>
+      </c>
+      <c r="B44" t="s">
         <v>195</v>
       </c>
-      <c r="B44" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
+        <v>103</v>
+      </c>
+      <c r="B45" t="s">
         <v>102</v>
       </c>
-      <c r="B45" t="s">
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
+      <c r="B46" t="s">
         <v>175</v>
       </c>
-      <c r="B46" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
+        <v>217</v>
+      </c>
+      <c r="B47" t="s">
         <v>216</v>
       </c>
-      <c r="B47" t="s">
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
+      <c r="B48" t="s">
         <v>239</v>
-      </c>
-      <c r="B48" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
+        <v>217</v>
+      </c>
+      <c r="B49" t="s">
         <v>240</v>
-      </c>
-      <c r="B49" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
+        <v>217</v>
+      </c>
+      <c r="B50" t="s">
         <v>241</v>
-      </c>
-      <c r="B50" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
+        <v>252</v>
+      </c>
+      <c r="B51" t="s">
         <v>251</v>
-      </c>
-      <c r="B51" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
+        <v>194</v>
+      </c>
+      <c r="B52" t="s">
         <v>193</v>
-      </c>
-      <c r="B52" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
+        <v>194</v>
+      </c>
+      <c r="B53" t="s">
         <v>256</v>
-      </c>
-      <c r="B53" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
+        <v>114</v>
+      </c>
+      <c r="B54" t="s">
         <v>115</v>
-      </c>
-      <c r="B54" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
+        <v>114</v>
+      </c>
+      <c r="B55" t="s">
         <v>113</v>
-      </c>
-      <c r="B55" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
+        <v>122</v>
+      </c>
+      <c r="B56" t="s">
         <v>143</v>
-      </c>
-      <c r="B56" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
+        <v>122</v>
+      </c>
+      <c r="B57" t="s">
         <v>121</v>
-      </c>
-      <c r="B57" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
+        <v>122</v>
+      </c>
+      <c r="B58" t="s">
         <v>124</v>
-      </c>
-      <c r="B58" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
+        <v>122</v>
+      </c>
+      <c r="B59" t="s">
         <v>132</v>
-      </c>
-      <c r="B59" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
+        <v>122</v>
+      </c>
+      <c r="B60" t="s">
         <v>133</v>
-      </c>
-      <c r="B60" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
+        <v>122</v>
+      </c>
+      <c r="B61" t="s">
         <v>147</v>
-      </c>
-      <c r="B61" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
+        <v>122</v>
+      </c>
+      <c r="B62" t="s">
         <v>263</v>
-      </c>
-      <c r="B62" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
+        <v>122</v>
+      </c>
+      <c r="B63" t="s">
         <v>264</v>
-      </c>
-      <c r="B63" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
+        <v>268</v>
+      </c>
+      <c r="B64" t="s">
         <v>271</v>
       </c>
-      <c r="B64" t="s">
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" t="s">
+      <c r="B65" t="s">
         <v>267</v>
       </c>
-      <c r="B65" t="s">
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
+      <c r="B66" t="s">
         <v>269</v>
       </c>
-      <c r="B66" t="s">
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
+      <c r="B67" t="s">
         <v>270</v>
       </c>
-      <c r="B67" t="s">
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" t="s">
+      <c r="B68" t="s">
         <v>276</v>
       </c>
-      <c r="B68" t="s">
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" t="s">
+      <c r="B69" t="s">
         <v>275</v>
       </c>
-      <c r="B69" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="C70" s="3"/>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="1" t="s">
+      <c r="B71" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+      <c r="C71" s="3"/>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
+        <v>243</v>
+      </c>
+      <c r="B72" t="s">
         <v>242</v>
       </c>
-      <c r="B72" t="s">
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" t="s">
+      <c r="B73" t="s">
         <v>244</v>
       </c>
-      <c r="B73" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
+        <v>25</v>
+      </c>
+      <c r="B74" t="s">
         <v>24</v>
       </c>
-      <c r="B74" t="s">
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" t="s">
+      <c r="B75" t="s">
         <v>98</v>
       </c>
-      <c r="B75" t="s">
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" t="s">
+      <c r="B76" t="s">
         <v>97</v>
       </c>
-      <c r="B76" t="s">
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" t="s">
+      <c r="B77" t="s">
         <v>148</v>
       </c>
-      <c r="B77" t="s">
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" t="s">
+      <c r="B78" t="s">
         <v>145</v>
       </c>
-      <c r="B78" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+    </row>
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
+        <v>258</v>
+      </c>
+      <c r="B79" t="s">
         <v>259</v>
       </c>
-      <c r="B79" t="s">
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" t="s">
+      <c r="B80" t="s">
         <v>257</v>
       </c>
-      <c r="B80" t="s">
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" t="s">
+      <c r="B81" t="s">
         <v>261</v>
       </c>
-      <c r="B81" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+    </row>
+    <row r="82" spans="1:3">
       <c r="A82" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="C82" s="3"/>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="1" t="s">
+      <c r="B83" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="C83" s="3"/>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="1" t="s">
+      <c r="B84" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+      <c r="C84" s="3"/>
+    </row>
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
+        <v>246</v>
+      </c>
+      <c r="B85" t="s">
         <v>245</v>
       </c>
-      <c r="B85" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+    </row>
+    <row r="86" spans="1:3">
       <c r="A86" t="s">
+        <v>27</v>
+      </c>
+      <c r="B86" t="s">
         <v>26</v>
       </c>
-      <c r="B86" t="s">
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" t="s">
+      <c r="B87" t="s">
         <v>37</v>
       </c>
-      <c r="B87" t="s">
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" t="s">
+      <c r="B88" t="s">
         <v>152</v>
       </c>
-      <c r="B88" t="s">
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" t="s">
+      <c r="B89" t="s">
         <v>185</v>
       </c>
-      <c r="B89" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+    </row>
+    <row r="90" spans="1:3">
       <c r="A90" t="s">
+        <v>12</v>
+      </c>
+      <c r="B90" t="s">
         <v>13</v>
       </c>
-      <c r="B90" t="s">
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" t="s">
+      <c r="B91" t="s">
         <v>11</v>
       </c>
-      <c r="B91" t="s">
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" t="s">
+      <c r="B92" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B92" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+      <c r="C92" s="3"/>
+    </row>
+    <row r="93" spans="1:3">
       <c r="A93" t="s">
+        <v>158</v>
+      </c>
+      <c r="B93" t="s">
         <v>157</v>
       </c>
-      <c r="B93" t="s">
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" t="s">
+      <c r="B94" t="s">
         <v>221</v>
       </c>
-      <c r="B94" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+    </row>
+    <row r="95" spans="1:3">
       <c r="A95" t="s">
+        <v>150</v>
+      </c>
+      <c r="B95" t="s">
         <v>149</v>
       </c>
-      <c r="B95" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+    </row>
+    <row r="96" spans="1:3">
       <c r="A96" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="C96" s="3"/>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="1" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" s="1" t="s">
+      <c r="B97" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B97" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+      <c r="C97" s="3"/>
+    </row>
+    <row r="98" spans="1:3">
       <c r="A98" t="s">
+        <v>181</v>
+      </c>
+      <c r="B98" t="s">
         <v>180</v>
       </c>
-      <c r="B98" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+    </row>
+    <row r="99" spans="1:3">
       <c r="A99" t="s">
+        <v>81</v>
+      </c>
+      <c r="B99" t="s">
         <v>80</v>
       </c>
-      <c r="B99" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+    </row>
+    <row r="100" spans="1:3">
       <c r="A100" t="s">
+        <v>84</v>
+      </c>
+      <c r="B100" t="s">
         <v>83</v>
       </c>
-      <c r="B100" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
+    </row>
+    <row r="101" spans="1:3">
       <c r="A101" t="s">
+        <v>192</v>
+      </c>
+      <c r="B101" t="s">
         <v>191</v>
       </c>
-      <c r="B101" t="s">
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" t="s">
+      <c r="B102" t="s">
         <v>214</v>
       </c>
-      <c r="B102" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
+    </row>
+    <row r="103" spans="1:3">
       <c r="A103" t="s">
+        <v>190</v>
+      </c>
+      <c r="B103" t="s">
         <v>189</v>
       </c>
-      <c r="B103" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
+    </row>
+    <row r="104" spans="1:3">
       <c r="A104" t="s">
+        <v>209</v>
+      </c>
+      <c r="B104" t="s">
         <v>208</v>
       </c>
-      <c r="B104" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
+    </row>
+    <row r="105" spans="1:3">
       <c r="A105" t="s">
+        <v>211</v>
+      </c>
+      <c r="B105" t="s">
         <v>210</v>
       </c>
-      <c r="B105" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
+    </row>
+    <row r="106" spans="1:3">
       <c r="A106" t="s">
+        <v>220</v>
+      </c>
+      <c r="B106" t="s">
         <v>219</v>
       </c>
-      <c r="B106" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
+    </row>
+    <row r="107" spans="1:3">
       <c r="A107" t="s">
+        <v>232</v>
+      </c>
+      <c r="B107" t="s">
         <v>231</v>
       </c>
-      <c r="B107" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
+    </row>
+    <row r="108" spans="1:3">
       <c r="A108" t="s">
+        <v>199</v>
+      </c>
+      <c r="B108" t="s">
         <v>198</v>
       </c>
-      <c r="B108" t="s">
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" t="s">
+      <c r="B109" t="s">
         <v>200</v>
       </c>
-      <c r="B109" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
+    </row>
+    <row r="110" spans="1:3">
       <c r="A110" t="s">
+        <v>202</v>
+      </c>
+      <c r="B110" t="s">
         <v>201</v>
       </c>
-      <c r="B110" t="s">
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" t="s">
+      <c r="B111" t="s">
         <v>205</v>
       </c>
-      <c r="B111" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
+    </row>
+    <row r="112" spans="1:3">
       <c r="A112" t="s">
+        <v>19</v>
+      </c>
+      <c r="B112" t="s">
         <v>18</v>
-      </c>
-      <c r="B112" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
+        <v>19</v>
+      </c>
+      <c r="B113" t="s">
         <v>46</v>
-      </c>
-      <c r="B113" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
+        <v>19</v>
+      </c>
+      <c r="B114" t="s">
         <v>47</v>
-      </c>
-      <c r="B114" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
+        <v>19</v>
+      </c>
+      <c r="B115" t="s">
         <v>79</v>
-      </c>
-      <c r="B115" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
+        <v>19</v>
+      </c>
+      <c r="B116" t="s">
         <v>146</v>
-      </c>
-      <c r="B116" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
+        <v>19</v>
+      </c>
+      <c r="B117" t="s">
         <v>187</v>
-      </c>
-      <c r="B117" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
+        <v>19</v>
+      </c>
+      <c r="B118" t="s">
         <v>188</v>
-      </c>
-      <c r="B118" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
+        <v>19</v>
+      </c>
+      <c r="B119" t="s">
         <v>237</v>
-      </c>
-      <c r="B119" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
+        <v>19</v>
+      </c>
+      <c r="B120" t="s">
         <v>236</v>
-      </c>
-      <c r="B120" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
+        <v>273</v>
+      </c>
+      <c r="B121" t="s">
         <v>272</v>
-      </c>
-      <c r="B121" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
+        <v>45</v>
+      </c>
+      <c r="B122" t="s">
         <v>44</v>
-      </c>
-      <c r="B122" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
+        <v>45</v>
+      </c>
+      <c r="B123" t="s">
         <v>109</v>
-      </c>
-      <c r="B123" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
+        <v>204</v>
+      </c>
+      <c r="B124" t="s">
         <v>203</v>
-      </c>
-      <c r="B124" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
+        <v>266</v>
+      </c>
+      <c r="B125" t="s">
         <v>265</v>
-      </c>
-      <c r="B125" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
+        <v>8</v>
+      </c>
+      <c r="B126" t="s">
         <v>7</v>
-      </c>
-      <c r="B126" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
+        <v>111</v>
+      </c>
+      <c r="B127" t="s">
         <v>110</v>
-      </c>
-      <c r="B127" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
+        <v>111</v>
+      </c>
+      <c r="B128" t="s">
         <v>253</v>
-      </c>
-      <c r="B128" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
+        <v>111</v>
+      </c>
+      <c r="B129" t="s">
         <v>277</v>
-      </c>
-      <c r="B129" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
+        <v>279</v>
+      </c>
+      <c r="B130" t="s">
         <v>278</v>
-      </c>
-      <c r="B130" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
+        <v>17</v>
+      </c>
+      <c r="B131" t="s">
         <v>16</v>
-      </c>
-      <c r="B131" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
+        <v>41</v>
+      </c>
+      <c r="B132" t="s">
         <v>40</v>
-      </c>
-      <c r="B132" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
+        <v>49</v>
+      </c>
+      <c r="B133" t="s">
         <v>48</v>
-      </c>
-      <c r="B133" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
+        <v>223</v>
+      </c>
+      <c r="B134" t="s">
         <v>222</v>
-      </c>
-      <c r="B134" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
+        <v>94</v>
+      </c>
+      <c r="B135" t="s">
         <v>93</v>
       </c>
-      <c r="B135" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="136" spans="1:2">
-      <c r="A136" t="s">
+      <c r="B136" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="137" spans="1:2">
-      <c r="A137" t="s">
+      <c r="B137" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:2">
-      <c r="A138" t="s">
+      <c r="B138" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="139" spans="1:2">
-      <c r="A139" t="s">
+      <c r="B139" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="140" spans="1:2">
-      <c r="A140" t="s">
+      <c r="B140" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="141" spans="1:2">
-      <c r="A141" t="s">
+      <c r="B141" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="142" spans="1:2">
-      <c r="A142" t="s">
+      <c r="B142" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="143" spans="1:2">
-      <c r="A143" t="s">
+      <c r="B143" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="144" spans="1:2">
-      <c r="A144" t="s">
+      <c r="B144" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="145" spans="1:1">
-      <c r="A145" t="s">
+    <row r="145" spans="2:2">
+      <c r="B145" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="146" spans="1:1">
-      <c r="A146" t="s">
+    <row r="146" spans="2:2">
+      <c r="B146" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="147" spans="1:1">
-      <c r="A147" t="s">
+    <row r="147" spans="2:2">
+      <c r="B147" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="148" spans="1:1">
-      <c r="A148" t="s">
+    <row r="148" spans="2:2">
+      <c r="B148" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="149" spans="1:1">
-      <c r="A149" t="s">
+    <row r="149" spans="2:2">
+      <c r="B149" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="150" spans="1:1">
-      <c r="A150" t="s">
+    <row r="150" spans="2:2">
+      <c r="B150" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="151" spans="1:1">
-      <c r="A151" t="s">
+    <row r="151" spans="2:2">
+      <c r="B151" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="152" spans="1:1">
-      <c r="A152" t="s">
+    <row r="152" spans="2:2">
+      <c r="B152" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="153" spans="1:1">
-      <c r="A153" t="s">
+    <row r="153" spans="2:2">
+      <c r="B153" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="154" spans="1:1">
-      <c r="A154" t="s">
+    <row r="154" spans="2:2">
+      <c r="B154" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="155" spans="1:1">
-      <c r="A155" t="s">
+    <row r="155" spans="2:2">
+      <c r="B155" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="156" spans="1:1">
-      <c r="A156" t="s">
+    <row r="156" spans="2:2">
+      <c r="B156" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="157" spans="1:1">
-      <c r="A157" t="s">
+    <row r="157" spans="2:2">
+      <c r="B157" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="158" spans="1:1">
-      <c r="A158" t="s">
+    <row r="158" spans="2:2">
+      <c r="B158" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="159" spans="1:1">
-      <c r="A159" t="s">
+    <row r="159" spans="2:2">
+      <c r="B159" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="160" spans="1:1">
-      <c r="A160" t="s">
+    <row r="160" spans="2:2">
+      <c r="B160" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="161" spans="1:1">
-      <c r="A161" t="s">
+    <row r="161" spans="2:2">
+      <c r="B161" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="162" spans="1:1">
-      <c r="A162" t="s">
+    <row r="162" spans="2:2">
+      <c r="B162" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="163" spans="1:1">
-      <c r="A163" t="s">
+    <row r="163" spans="2:2">
+      <c r="B163" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="164" spans="1:1">
-      <c r="A164" t="s">
+    <row r="164" spans="2:2">
+      <c r="B164" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="165" spans="1:1">
-      <c r="A165" t="s">
+    <row r="165" spans="2:2">
+      <c r="B165" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="166" spans="1:1">
-      <c r="A166" t="s">
+    <row r="166" spans="2:2">
+      <c r="B166" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="167" spans="1:1">
-      <c r="A167" t="s">
+    <row r="167" spans="2:2">
+      <c r="B167" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="168" spans="1:1">
-      <c r="A168" t="s">
+    <row r="168" spans="2:2">
+      <c r="B168" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="169" spans="1:1">
-      <c r="A169" t="s">
+    <row r="169" spans="2:2">
+      <c r="B169" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="170" spans="1:1">
-      <c r="A170" t="s">
+    <row r="170" spans="2:2">
+      <c r="B170" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="171" spans="1:1">
-      <c r="A171" t="s">
+    <row r="171" spans="2:2">
+      <c r="B171" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="172" spans="1:1">
-      <c r="A172" t="s">
+    <row r="172" spans="2:2">
+      <c r="B172" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="173" spans="1:1">
-      <c r="A173" t="s">
+    <row r="173" spans="2:2">
+      <c r="B173" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="174" spans="1:1">
-      <c r="A174" t="s">
+    <row r="174" spans="2:2">
+      <c r="B174" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="175" spans="1:1">
-      <c r="A175" t="s">
+    <row r="175" spans="2:2">
+      <c r="B175" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="176" spans="1:1">
-      <c r="A176" t="s">
+    <row r="176" spans="2:2">
+      <c r="B176" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="177" spans="1:1">
-      <c r="A177" t="s">
+    <row r="177" spans="2:2">
+      <c r="B177" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="178" spans="1:1">
-      <c r="A178" t="s">
+    <row r="178" spans="2:2">
+      <c r="B178" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="179" spans="1:1">
-      <c r="A179" t="s">
+    <row r="179" spans="2:2">
+      <c r="B179" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="180" spans="1:1">
-      <c r="A180" t="s">
+    <row r="180" spans="2:2">
+      <c r="B180" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="181" spans="1:1">
-      <c r="A181" t="s">
+    <row r="181" spans="2:2">
+      <c r="B181" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="182" spans="1:1">
-      <c r="A182" t="s">
+    <row r="182" spans="2:2">
+      <c r="B182" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="183" spans="1:1">
-      <c r="A183" t="s">
+    <row r="183" spans="2:2">
+      <c r="B183" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="184" spans="1:1">
-      <c r="A184" t="s">
+    <row r="184" spans="2:2">
+      <c r="B184" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="185" spans="1:1">
-      <c r="A185" t="s">
+    <row r="185" spans="2:2">
+      <c r="B185" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="186" spans="1:1">
-      <c r="A186" t="s">
+    <row r="186" spans="2:2">
+      <c r="B186" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="187" spans="1:1">
-      <c r="A187" t="s">
+    <row r="187" spans="2:2">
+      <c r="B187" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="188" spans="1:1">
-      <c r="A188" t="s">
+    <row r="188" spans="2:2">
+      <c r="B188" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="189" spans="1:1">
-      <c r="A189" t="s">
+    <row r="189" spans="2:2">
+      <c r="B189" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="190" spans="1:1">
-      <c r="A190" t="s">
+    <row r="190" spans="2:2">
+      <c r="B190" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="191" spans="1:1">
-      <c r="A191" t="s">
+    <row r="191" spans="2:2">
+      <c r="B191" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="192" spans="1:1">
-      <c r="A192" t="s">
+    <row r="192" spans="2:2">
+      <c r="B192" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="193" spans="1:1">
-      <c r="A193" t="s">
+    <row r="193" spans="2:2">
+      <c r="B193" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="194" spans="1:1">
-      <c r="A194" t="s">
+    <row r="194" spans="2:2">
+      <c r="B194" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="195" spans="1:1">
-      <c r="A195" t="s">
+    <row r="195" spans="2:2">
+      <c r="B195" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="196" spans="1:1">
-      <c r="A196" t="s">
+    <row r="196" spans="2:2">
+      <c r="B196" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="197" spans="1:1">
-      <c r="A197" t="s">
+    <row r="197" spans="2:2">
+      <c r="B197" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="198" spans="1:1">
-      <c r="A198" t="s">
+    <row r="198" spans="2:2">
+      <c r="B198" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="199" spans="1:1">
-      <c r="A199" t="s">
+    <row r="199" spans="2:2">
+      <c r="B199" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="200" spans="1:1">
-      <c r="A200" t="s">
+    <row r="200" spans="2:2">
+      <c r="B200" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="201" spans="1:1">
-      <c r="A201" t="s">
+    <row r="201" spans="2:2">
+      <c r="B201" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="202" spans="1:1">
-      <c r="A202" t="s">
+    <row r="202" spans="2:2">
+      <c r="B202" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="203" spans="1:1">
-      <c r="A203" t="s">
+    <row r="203" spans="2:2">
+      <c r="B203" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="204" spans="1:1">
-      <c r="A204" t="s">
+    <row r="204" spans="2:2">
+      <c r="B204" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="205" spans="1:1">
-      <c r="A205" t="s">
+    <row r="205" spans="2:2">
+      <c r="B205" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="206" spans="1:1">
-      <c r="A206" t="s">
+    <row r="206" spans="2:2">
+      <c r="B206" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="207" spans="1:1">
-      <c r="A207" t="s">
+    <row r="207" spans="2:2">
+      <c r="B207" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="208" spans="1:1">
-      <c r="A208" t="s">
+    <row r="208" spans="2:2">
+      <c r="B208" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="209" spans="1:1">
-      <c r="A209" t="s">
+    <row r="209" spans="2:2">
+      <c r="B209" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="210" spans="1:1">
-      <c r="A210" t="s">
+    <row r="210" spans="2:2">
+      <c r="B210" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="211" spans="1:1">
-      <c r="A211" t="s">
+    <row r="211" spans="2:2">
+      <c r="B211" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="212" spans="1:1">
-      <c r="A212" t="s">
+    <row r="212" spans="2:2">
+      <c r="B212" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="213" spans="1:1">
-      <c r="A213" t="s">
+    <row r="213" spans="2:2">
+      <c r="B213" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="214" spans="1:1">
-      <c r="A214" t="s">
+    <row r="214" spans="2:2">
+      <c r="B214" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="215" spans="1:1">
-      <c r="A215" t="s">
+    <row r="215" spans="2:2">
+      <c r="B215" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="216" spans="1:1">
-      <c r="A216" t="s">
+    <row r="216" spans="2:2">
+      <c r="B216" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="217" spans="1:1">
-      <c r="A217" t="s">
+    <row r="217" spans="2:2">
+      <c r="B217" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="218" spans="1:1">
-      <c r="A218" t="s">
+    <row r="218" spans="2:2">
+      <c r="B218" t="s">
         <v>255</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:B218">
+  <sortState ref="B2:C218">
+    <sortCondition ref="C2:C218"/>
     <sortCondition ref="B2:B218"/>
-    <sortCondition ref="A2:A218"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -10714,10 +10776,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B190"/>
+  <dimension ref="A2:C190"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -10974,15 +11036,16 @@
         <v>447</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
         <v>491</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="C33" s="3"/>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>482</v>
       </c>
@@ -10990,15 +11053,16 @@
         <v>483</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
         <v>487</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="C35" s="3"/>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>488</v>
       </c>
@@ -11006,7 +11070,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>493</v>
       </c>
@@ -11014,15 +11078,16 @@
         <v>483</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
         <v>489</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="C38" s="3"/>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>311</v>
       </c>
@@ -11030,7 +11095,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>350</v>
       </c>
@@ -11038,42 +11103,42 @@
         <v>351</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>289</v>
       </c>
@@ -11794,10 +11859,10 @@
     <sortCondition ref="A2:A190"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -11813,7 +11878,7 @@
   <dimension ref="A2:C76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -11823,7 +11888,7 @@
     <col min="3" max="3" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>1126</v>
       </c>
@@ -11831,7 +11896,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>1189</v>
       </c>
@@ -11839,7 +11904,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>1187</v>
       </c>
@@ -11847,7 +11912,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>1142</v>
       </c>
@@ -11855,7 +11920,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>1144</v>
       </c>
@@ -11863,7 +11928,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>1148</v>
       </c>
@@ -11871,7 +11936,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>1113</v>
       </c>
@@ -11879,7 +11944,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>1115</v>
       </c>
@@ -11887,31 +11952,34 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>1169</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>1153</v>
       </c>
@@ -11919,7 +11987,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>1176</v>
       </c>
@@ -11927,7 +11995,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>1159</v>
       </c>
@@ -11935,7 +12003,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>1156</v>
       </c>
@@ -11943,7 +12011,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>1158</v>
       </c>
@@ -11951,7 +12019,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>1165</v>
       </c>
@@ -11959,7 +12027,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>1124</v>
       </c>
@@ -11967,7 +12035,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>1163</v>
       </c>
@@ -11975,7 +12043,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>1161</v>
       </c>
@@ -11983,7 +12051,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>1164</v>
       </c>
@@ -11991,7 +12059,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>1116</v>
       </c>
@@ -11999,15 +12067,16 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
         <v>1191</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>1117</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>803</v>
       </c>
@@ -12015,7 +12084,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>1132</v>
       </c>
@@ -12023,7 +12092,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>1118</v>
       </c>
@@ -12031,27 +12100,27 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>1195</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>1111</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>1112</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>1120</v>
       </c>
@@ -12282,7 +12351,7 @@
     <sortCondition ref="A2:A76"/>
   </sortState>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -12298,7 +12367,7 @@
   <dimension ref="A2:B108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -12927,10 +12996,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B515"/>
+  <dimension ref="A1:C515"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B38" sqref="B1:B1048576"/>
+    <sheetView topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="C127" sqref="C127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -13323,7 +13392,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>1380</v>
       </c>
@@ -13331,7 +13400,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>1381</v>
       </c>
@@ -13339,7 +13408,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>1222</v>
       </c>
@@ -13347,7 +13416,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>1348</v>
       </c>
@@ -13355,7 +13424,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>1855</v>
       </c>
@@ -13363,31 +13432,34 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:3">
       <c r="A54" s="1" t="s">
         <v>1629</v>
       </c>
       <c r="B54" t="s">
         <v>1630</v>
       </c>
-    </row>
-    <row r="55" spans="1:2">
+      <c r="C54" s="3"/>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" s="1" t="s">
         <v>1635</v>
       </c>
       <c r="B55" t="s">
         <v>1630</v>
       </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" t="s">
+      <c r="C55" s="3"/>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="1" t="s">
         <v>1636</v>
       </c>
       <c r="B56" t="s">
         <v>1630</v>
       </c>
-    </row>
-    <row r="57" spans="1:2">
+      <c r="C56" s="3"/>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>1360</v>
       </c>
@@ -13395,7 +13467,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>1642</v>
       </c>
@@ -13403,7 +13475,7 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>1645</v>
       </c>
@@ -13411,7 +13483,7 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
         <v>1646</v>
       </c>
@@ -13419,7 +13491,7 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>1647</v>
       </c>
@@ -13427,7 +13499,7 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>1631</v>
       </c>
@@ -13435,7 +13507,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
         <v>1378</v>
       </c>
@@ -13443,7 +13515,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
         <v>1652</v>
       </c>
@@ -13707,7 +13779,7 @@
         <v>1599</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:3">
       <c r="A97" t="s">
         <v>1700</v>
       </c>
@@ -13715,7 +13787,7 @@
         <v>1599</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:3">
       <c r="A98" t="s">
         <v>1701</v>
       </c>
@@ -13723,7 +13795,7 @@
         <v>1599</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:3">
       <c r="A99" t="s">
         <v>1765</v>
       </c>
@@ -13731,7 +13803,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:3">
       <c r="A100" t="s">
         <v>1767</v>
       </c>
@@ -13739,7 +13811,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:3">
       <c r="A101" t="s">
         <v>1769</v>
       </c>
@@ -13747,7 +13819,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:3">
       <c r="A102" t="s">
         <v>1793</v>
       </c>
@@ -13755,7 +13827,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:3">
       <c r="A103" t="s">
         <v>1790</v>
       </c>
@@ -13763,7 +13835,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:3">
       <c r="A104" t="s">
         <v>1796</v>
       </c>
@@ -13771,7 +13843,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:3">
       <c r="A105" t="s">
         <v>1797</v>
       </c>
@@ -13779,7 +13851,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:3">
       <c r="A106" t="s">
         <v>1798</v>
       </c>
@@ -13787,7 +13859,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:3">
       <c r="A107" t="s">
         <v>1794</v>
       </c>
@@ -13795,7 +13867,7 @@
         <v>1795</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:3">
       <c r="A108" t="s">
         <v>1825</v>
       </c>
@@ -13803,7 +13875,7 @@
         <v>1826</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:3">
       <c r="A109" t="s">
         <v>1832</v>
       </c>
@@ -13811,39 +13883,43 @@
         <v>1833</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
-      <c r="A110" t="s">
+    <row r="110" spans="1:3">
+      <c r="A110" s="1" t="s">
         <v>1851</v>
       </c>
       <c r="B110" t="s">
         <v>1852</v>
       </c>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" t="s">
+      <c r="C110" s="3"/>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="1" t="s">
         <v>1854</v>
       </c>
       <c r="B111" t="s">
         <v>1852</v>
       </c>
-    </row>
-    <row r="112" spans="1:2">
+      <c r="C111" s="3"/>
+    </row>
+    <row r="112" spans="1:3">
       <c r="A112" s="1" t="s">
         <v>1851</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>1853</v>
       </c>
-    </row>
-    <row r="113" spans="1:2">
+      <c r="C112" s="3"/>
+    </row>
+    <row r="113" spans="1:3">
       <c r="A113" s="1" t="s">
         <v>1854</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>1853</v>
       </c>
-    </row>
-    <row r="114" spans="1:2">
+      <c r="C113" s="3"/>
+    </row>
+    <row r="114" spans="1:3">
       <c r="A114" t="s">
         <v>1862</v>
       </c>
@@ -13851,7 +13927,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:3">
       <c r="A115" t="s">
         <v>1864</v>
       </c>
@@ -13859,7 +13935,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:3">
       <c r="A116" t="s">
         <v>1868</v>
       </c>
@@ -13867,7 +13943,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:3">
       <c r="A117" t="s">
         <v>1880</v>
       </c>
@@ -13875,7 +13951,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:3">
       <c r="A118" t="s">
         <v>1323</v>
       </c>
@@ -13883,7 +13959,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:3">
       <c r="A119" t="s">
         <v>1325</v>
       </c>
@@ -13891,7 +13967,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:3">
       <c r="A120" t="s">
         <v>1326</v>
       </c>
@@ -13899,7 +13975,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:3">
       <c r="A121" t="s">
         <v>1327</v>
       </c>
@@ -13907,7 +13983,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:3">
       <c r="A122" t="s">
         <v>1664</v>
       </c>
@@ -13915,7 +13991,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:3">
       <c r="A123" t="s">
         <v>1663</v>
       </c>
@@ -13923,7 +13999,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:3">
       <c r="A124" t="s">
         <v>1336</v>
       </c>
@@ -13931,7 +14007,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:3">
       <c r="A125" t="s">
         <v>1437</v>
       </c>
@@ -13939,7 +14015,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:3">
       <c r="A126" t="s">
         <v>1439</v>
       </c>
@@ -13947,15 +14023,16 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:3">
       <c r="A127" s="1" t="s">
         <v>1672</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>1438</v>
       </c>
-    </row>
-    <row r="128" spans="1:2">
+      <c r="C127" s="3"/>
+    </row>
+    <row r="128" spans="1:3">
       <c r="A128" t="s">
         <v>1649</v>
       </c>
@@ -15919,7 +15996,7 @@
     <sortCondition ref="A1:A516"/>
   </sortState>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
